--- a/Testdata/Non_Oncology/DataFiles/ManagePopulations/EP_Categorical/EditPopulations_with_Invalid_Categorical_Data.xlsx
+++ b/Testdata/Non_Oncology/DataFiles/ManagePopulations/EP_Categorical/EditPopulations_with_Invalid_Categorical_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\DataFiles\ManagePopulations\EP_Categorical\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4E3B1C-A21F-4637-937F-9EE8FBE12E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A751D32-E382-4445-90FA-F26CA0965C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{4E4E9E4E-34CE-4B5C-BC3C-B08A05AB3BC9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -116,9 +116,6 @@
   </si>
   <si>
     <t>QI-2 is missing from the template, please re-check your template and upload again.</t>
-  </si>
-  <si>
-    <t>Duplicate column found for QA-3, please re-check your template and upload again.</t>
   </si>
   <si>
     <t>Duplicate column found for RI-3, please re-check your template and upload again.</t>
@@ -524,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A57BBF-4E09-492C-9596-59872866F622}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -536,7 +533,7 @@
     <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.88671875" customWidth="1"/>
+    <col min="5" max="5" width="114.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="55.77734375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -557,7 +554,7 @@
         <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -593,7 +590,7 @@
     </row>
     <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -613,7 +610,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -624,7 +621,7 @@
     </row>
     <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -644,7 +641,7 @@
     </row>
     <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -658,7 +655,7 @@
     </row>
     <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>20</v>
@@ -666,7 +663,7 @@
     </row>
     <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -678,7 +675,7 @@
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>21</v>
@@ -686,7 +683,7 @@
     </row>
     <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -695,12 +692,12 @@
         <v>14</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -720,7 +717,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -731,7 +728,7 @@
     </row>
     <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -751,7 +748,7 @@
     </row>
     <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
@@ -765,7 +762,7 @@
     </row>
     <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>24</v>
@@ -773,7 +770,7 @@
     </row>
     <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>21</v>
@@ -781,7 +778,7 @@
     </row>
     <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>25</v>
@@ -789,7 +786,7 @@
     </row>
     <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>26</v>
@@ -797,31 +794,31 @@
     </row>
     <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>28</v>
@@ -829,18 +826,10 @@
     </row>
     <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>36</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
